--- a/biology/Zoologie/Callophrys_affinis/Callophrys_affinis.xlsx
+++ b/biology/Zoologie/Callophrys_affinis/Callophrys_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys affinis est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Theclinae, du genre Callophrys.
 </t>
@@ -511,18 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callophrys affinis a été nommé par William Henry Edwards en 1862.
-Synonyme : Thecla affinis Edwards, 1862[1];
-Noms vernaculaires
-Il se nomme en anglais Immaculate Green Hairstreak ou Western Green Hairstreak et Callophrys affinis apama Canyon Green Hairstreak[1],[2].
-Sous-espèces
-Callophrys affinis  affinis
-Callophrys affinis albipalpus Gorelick, 2005[3]
-Callophrys affinis apama (W.H.Edwards, 1882) présent aussi au Mexique[4],[5].
-Callophrys affinis chapmani Gorelick, 2005[3].
-Callophrys affinis washingtonia Clench, 1944 ;le seul présent au Canada[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys affinis a été nommé par William Henry Edwards en 1862.
+Synonyme : Thecla affinis Edwards, 1862;
+</t>
         </is>
       </c>
     </row>
@@ -547,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce petit papillon d'une envergure de 20 à 30 mm présente un dessus gris suffusé de marron variant du gris au marron cuivré.
-Le verso est vert jaunâtre et la ligne blanche mediodiscale caractéristique du genre est peu visible ou absente[2],[6].
-Chenille
-La chenille de couleur verte ou rouge, est ornementée de stries sur chaque segment et d'une ligne dorsale blanche[6].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Immaculate Green Hairstreak ou Western Green Hairstreak et Callophrys affinis apama Canyon Green Hairstreak,.
 </t>
         </is>
       </c>
@@ -581,17 +591,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chrysalide qui hiverne[2].
-Callophrys affinis vole en une génération, entre février et juillet suivant son lieu de résidence, de mars à mi-juin au Canada[7],[6].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Eriogonum dont Eriogonum heracleoides et Eriogonum umbellatum.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Callophrys affinis  affinis
+Callophrys affinis albipalpus Gorelick, 2005
+Callophrys affinis apama (W.H.Edwards, 1882) présent aussi au Mexique,.
+Callophrys affinis chapmani Gorelick, 2005.
+Callophrys affinis washingtonia Clench, 1944 ;le seul présent au Canada.</t>
         </is>
       </c>
     </row>
@@ -616,16 +631,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit papillon d'une envergure de 20 à 30 mm présente un dessus gris suffusé de marron variant du gris au marron cuivré.
+Le verso est vert jaunâtre et la ligne blanche mediodiscale caractéristique du genre est peu visible ou absente,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille de couleur verte ou rouge, est ornementée de stries sur chaque segment et d'une ligne dorsale blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chrysalide qui hiverne.
+Callophrys affinis vole en une génération, entre février et juillet suivant son lieu de résidence, de mars à mi-juin au Canada,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Eriogonum dont Eriogonum heracleoides et Eriogonum umbellatum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callophrys affinis est présent en Amérique du Nord dans le sud de la Colombie-Britannique au Canada et dans tout l'ouest des États-Unis à partir du Montana, du Wyoming, du Colorado et du Nouveau-Mexique et au nord-ouest du Mexique[2].
-Biotope
-Il réside dans les zones où pousse l'armoise, la plante hôte de sa chenille.
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys affinis est présent en Amérique du Nord dans le sud de la Colombie-Britannique au Canada et dans tout l'ouest des États-Unis à partir du Montana, du Wyoming, du Colorado et du Nouveau-Mexique et au nord-ouest du Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones où pousse l'armoise, la plante hôte de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_affinis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
